--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Nlgn3-Nrxn2.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Nlgn3-Nrxn2.xlsx
@@ -534,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.3239616666666667</v>
+        <v>0.2210183333333333</v>
       </c>
       <c r="H2">
-        <v>0.9718850000000001</v>
+        <v>0.6630550000000001</v>
       </c>
       <c r="I2">
-        <v>0.1555281019885789</v>
+        <v>0.111623447733668</v>
       </c>
       <c r="J2">
-        <v>0.1555281019885789</v>
+        <v>0.111623447733668</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -552,28 +552,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>0.039512</v>
+        <v>0.007742333333333334</v>
       </c>
       <c r="N2">
-        <v>0.118536</v>
+        <v>0.023227</v>
       </c>
       <c r="O2">
-        <v>0.006183359004302676</v>
+        <v>0.001217676423630818</v>
       </c>
       <c r="P2">
-        <v>0.006183359004302676</v>
+        <v>0.001217676423630818</v>
       </c>
       <c r="Q2">
-        <v>0.01280037337333334</v>
+        <v>0.001711197609444445</v>
       </c>
       <c r="R2">
-        <v>0.11520336036</v>
+        <v>0.015400778485</v>
       </c>
       <c r="S2">
-        <v>0.0009616860898531841</v>
+        <v>0.0001359212406296744</v>
       </c>
       <c r="T2">
-        <v>0.0009616860898531839</v>
+        <v>0.0001359212406296744</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.3239616666666667</v>
+        <v>0.2210183333333333</v>
       </c>
       <c r="H3">
-        <v>0.9718850000000001</v>
+        <v>0.6630550000000001</v>
       </c>
       <c r="I3">
-        <v>0.1555281019885789</v>
+        <v>0.111623447733668</v>
       </c>
       <c r="J3">
-        <v>0.1555281019885789</v>
+        <v>0.111623447733668</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>18.117162</v>
       </c>
       <c r="O3">
-        <v>0.9450708374258476</v>
+        <v>0.9497929577862038</v>
       </c>
       <c r="P3">
-        <v>0.9450708374258477</v>
+        <v>0.9497929577862039</v>
       </c>
       <c r="Q3">
-        <v>1.95642199893</v>
+        <v>1.33474164999</v>
       </c>
       <c r="R3">
-        <v>17.60779799037</v>
+        <v>12.01267484991</v>
       </c>
       <c r="S3">
-        <v>0.1469850735895989</v>
+        <v>0.1060191645812543</v>
       </c>
       <c r="T3">
-        <v>0.1469850735895989</v>
+        <v>0.1060191645812543</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.3239616666666667</v>
+        <v>0.2210183333333333</v>
       </c>
       <c r="H4">
-        <v>0.9718850000000001</v>
+        <v>0.6630550000000001</v>
       </c>
       <c r="I4">
-        <v>0.1555281019885789</v>
+        <v>0.111623447733668</v>
       </c>
       <c r="J4">
-        <v>0.1555281019885789</v>
+        <v>0.111623447733668</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.3114883333333333</v>
+        <v>0.3114883333333334</v>
       </c>
       <c r="N4">
-        <v>0.934465</v>
+        <v>0.9344650000000001</v>
       </c>
       <c r="O4">
-        <v>0.04874580356984966</v>
+        <v>0.04898936579016542</v>
       </c>
       <c r="P4">
-        <v>0.04874580356984967</v>
+        <v>0.04898936579016543</v>
       </c>
       <c r="Q4">
-        <v>0.1009102796138889</v>
+        <v>0.06884463228611112</v>
       </c>
       <c r="R4">
-        <v>0.9081925165250001</v>
+        <v>0.6196016905750001</v>
       </c>
       <c r="S4">
-        <v>0.007581342309126811</v>
+        <v>0.005468361911784073</v>
       </c>
       <c r="T4">
-        <v>0.007581342309126811</v>
+        <v>0.005468361911784074</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>3.08099</v>
       </c>
       <c r="I5">
-        <v>0.4930424144274184</v>
+        <v>0.5186760166697389</v>
       </c>
       <c r="J5">
-        <v>0.4930424144274184</v>
+        <v>0.5186760166697389</v>
       </c>
       <c r="K5">
         <v>1</v>
@@ -738,28 +738,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>0.039512</v>
+        <v>0.007742333333333334</v>
       </c>
       <c r="N5">
-        <v>0.118536</v>
+        <v>0.023227</v>
       </c>
       <c r="O5">
-        <v>0.006183359004302676</v>
+        <v>0.001217676423630818</v>
       </c>
       <c r="P5">
-        <v>0.006183359004302676</v>
+        <v>0.001217676423630818</v>
       </c>
       <c r="Q5">
-        <v>0.04057869229333333</v>
+        <v>0.007951350525555555</v>
       </c>
       <c r="R5">
-        <v>0.36520823064</v>
+        <v>0.07156215473000001</v>
       </c>
       <c r="S5">
-        <v>0.003048658252752909</v>
+        <v>0.0006315795570014862</v>
       </c>
       <c r="T5">
-        <v>0.003048658252752909</v>
+        <v>0.0006315795570014862</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>3.08099</v>
       </c>
       <c r="I6">
-        <v>0.4930424144274184</v>
+        <v>0.5186760166697389</v>
       </c>
       <c r="J6">
-        <v>0.4930424144274184</v>
+        <v>0.5186760166697389</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>18.117162</v>
       </c>
       <c r="O6">
-        <v>0.9450708374258476</v>
+        <v>0.9497929577862038</v>
       </c>
       <c r="P6">
-        <v>0.9450708374258477</v>
+        <v>0.9497929577862039</v>
       </c>
       <c r="Q6">
         <v>6.202088327819999</v>
@@ -818,10 +818,10 @@
         <v>55.81879495038</v>
       </c>
       <c r="S6">
-        <v>0.4659600074893822</v>
+        <v>0.4926348280055177</v>
       </c>
       <c r="T6">
-        <v>0.4659600074893822</v>
+        <v>0.4926348280055177</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>3.08099</v>
       </c>
       <c r="I7">
-        <v>0.4930424144274184</v>
+        <v>0.5186760166697389</v>
       </c>
       <c r="J7">
-        <v>0.4930424144274184</v>
+        <v>0.5186760166697389</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.3114883333333333</v>
+        <v>0.3114883333333334</v>
       </c>
       <c r="N7">
-        <v>0.934465</v>
+        <v>0.9344650000000001</v>
       </c>
       <c r="O7">
-        <v>0.04874580356984966</v>
+        <v>0.04898936579016542</v>
       </c>
       <c r="P7">
-        <v>0.04874580356984967</v>
+        <v>0.04898936579016543</v>
       </c>
       <c r="Q7">
-        <v>0.3198974800388888</v>
+        <v>0.3198974800388889</v>
       </c>
       <c r="R7">
         <v>2.87907732035</v>
       </c>
       <c r="S7">
-        <v>0.02403374868528335</v>
+        <v>0.02540960910721978</v>
       </c>
       <c r="T7">
-        <v>0.02403374868528335</v>
+        <v>0.02540960910721978</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,10 +912,10 @@
         <v>2.19606</v>
       </c>
       <c r="I8">
-        <v>0.3514294835840027</v>
+        <v>0.369700535596593</v>
       </c>
       <c r="J8">
-        <v>0.3514294835840027</v>
+        <v>0.369700535596593</v>
       </c>
       <c r="K8">
         <v>1</v>
@@ -924,28 +924,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M8">
-        <v>0.039512</v>
+        <v>0.007742333333333334</v>
       </c>
       <c r="N8">
-        <v>0.118536</v>
+        <v>0.023227</v>
       </c>
       <c r="O8">
-        <v>0.006183359004302676</v>
+        <v>0.001217676423630818</v>
       </c>
       <c r="P8">
-        <v>0.006183359004302676</v>
+        <v>0.001217676423630818</v>
       </c>
       <c r="Q8">
-        <v>0.02892357424</v>
+        <v>0.005667542846666667</v>
       </c>
       <c r="R8">
-        <v>0.26031216816</v>
+        <v>0.05100788562000001</v>
       </c>
       <c r="S8">
-        <v>0.002173014661696583</v>
+        <v>0.0004501756259996573</v>
       </c>
       <c r="T8">
-        <v>0.002173014661696583</v>
+        <v>0.0004501756259996573</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,10 +974,10 @@
         <v>2.19606</v>
       </c>
       <c r="I9">
-        <v>0.3514294835840027</v>
+        <v>0.369700535596593</v>
       </c>
       <c r="J9">
-        <v>0.3514294835840027</v>
+        <v>0.369700535596593</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,10 +992,10 @@
         <v>18.117162</v>
       </c>
       <c r="O9">
-        <v>0.9450708374258476</v>
+        <v>0.9497929577862038</v>
       </c>
       <c r="P9">
-        <v>0.9450708374258477</v>
+        <v>0.9497929577862039</v>
       </c>
       <c r="Q9">
         <v>4.42070830908</v>
@@ -1004,10 +1004,10 @@
         <v>39.78637478172001</v>
       </c>
       <c r="S9">
-        <v>0.3321257563468666</v>
+        <v>0.3511389651994318</v>
       </c>
       <c r="T9">
-        <v>0.3321257563468666</v>
+        <v>0.3511389651994318</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,10 +1036,10 @@
         <v>2.19606</v>
       </c>
       <c r="I10">
-        <v>0.3514294835840027</v>
+        <v>0.369700535596593</v>
       </c>
       <c r="J10">
-        <v>0.3514294835840027</v>
+        <v>0.369700535596593</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,28 +1048,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.3114883333333333</v>
+        <v>0.3114883333333334</v>
       </c>
       <c r="N10">
-        <v>0.934465</v>
+        <v>0.9344650000000001</v>
       </c>
       <c r="O10">
-        <v>0.04874580356984966</v>
+        <v>0.04898936579016542</v>
       </c>
       <c r="P10">
-        <v>0.04874580356984967</v>
+        <v>0.04898936579016543</v>
       </c>
       <c r="Q10">
-        <v>0.2280156897666666</v>
+        <v>0.2280156897666667</v>
       </c>
       <c r="R10">
-        <v>2.0521412079</v>
+        <v>2.052141207900001</v>
       </c>
       <c r="S10">
-        <v>0.0171307125754395</v>
+        <v>0.01811139477116156</v>
       </c>
       <c r="T10">
-        <v>0.01713071257543951</v>
+        <v>0.01811139477116157</v>
       </c>
     </row>
   </sheetData>
